--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_13-01.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_13-01.xlsx
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>36:0</t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 4</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1163,17 +1166,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1181,7 +1184,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1189,51 +1192,77 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
-      <c r="K23" s="10">
-        <v>1218.04</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" ht="17.25" customHeight="1">
-      <c t="s" r="A24" s="11">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c t="s" r="B23" s="7">
         <v>40</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c t="s" r="F24" s="12">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c t="s" r="H23" s="8">
+        <v>14</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9">
+        <v>30</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c t="s" r="N23" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="K24" s="10">
+        <v>1538.04</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="11">
         <v>41</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c t="s" r="I24" s="14">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c t="s" r="F25" s="12">
         <v>42</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c t="s" r="I25" s="14">
+        <v>43</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="71">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1298,10 +1327,13 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:N25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
